--- a/data-ha-versus-con.xlsx
+++ b/data-ha-versus-con.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/Dropbox/Research projects/Letter - Waldron el al 2021 - Sports Medicine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F88869-117E-5D44-A0C6-AAA5832E3FEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FB3D10-AC54-7A43-B33D-EB42A624714A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="820" windowWidth="24600" windowHeight="20560" xr2:uid="{DF51997F-E4DC-8743-8515-C9C0C7F4A63C}"/>
+    <workbookView xWindow="17780" yWindow="500" windowWidth="20220" windowHeight="20560" xr2:uid="{DF51997F-E4DC-8743-8515-C9C0C7F4A63C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,7 +467,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -745,13 +745,13 @@
         <v>22</v>
       </c>
       <c r="C11" s="1">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1">
         <v>53.1</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>1.1499999999999999</v>
-      </c>
-      <c r="E11" s="1">
-        <v>21</v>
       </c>
       <c r="F11" s="1">
         <v>5</v>
